--- a/results/mp/logistic/corona/confidence/168/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,66 +40,66 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>die</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>lower</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -112,12 +112,12 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
@@ -127,81 +127,87 @@
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
@@ -211,7 +217,7 @@
     <t>important</t>
   </si>
   <si>
-    <t>helping</t>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
@@ -578,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,7 +595,7 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -665,19 +671,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8082191780821918</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -739,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="L6">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M6">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7666666666666667</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7297297297297297</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7241379310344828</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8198433420365535</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L9">
-        <v>314</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>314</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5343915343915344</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5254237288135594</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K11">
-        <v>0.8046875</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L11">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5174418604651163</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C12">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="D12">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>249</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5098039215686274</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>252</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K13">
-        <v>0.7924528301886793</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4832214765100671</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C15">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7659574468085106</v>
+        <v>0.75625</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1297,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3733333333333334</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1315,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K16">
-        <v>0.7586206896551724</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1339,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1347,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3636363636363636</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1365,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1389,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1421,13 +1427,13 @@
         <v>47</v>
       </c>
       <c r="K18">
-        <v>0.7394366197183099</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1439,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1447,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3571428571428572</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1471,13 +1477,13 @@
         <v>48</v>
       </c>
       <c r="K19">
-        <v>0.73125</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1489,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1497,13 +1503,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2658730158730159</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C20">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1515,19 +1521,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K20">
-        <v>0.7301587301587301</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1539,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1547,13 +1553,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2597402597402597</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1565,19 +1571,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1589,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1597,13 +1603,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2444444444444444</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1615,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>51</v>
@@ -1647,13 +1653,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.128686327077748</v>
+        <v>0.1447721179624665</v>
       </c>
       <c r="C23">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1665,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K23">
-        <v>0.675</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1689,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1721,13 +1727,13 @@
         <v>53</v>
       </c>
       <c r="K24">
-        <v>0.6744186046511628</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1739,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1747,37 +1753,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.009350163627863487</v>
+        <v>0.008890968647636874</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="F25">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K25">
-        <v>0.6470588235294118</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L25">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1789,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1797,13 +1803,13 @@
         <v>55</v>
       </c>
       <c r="K26">
-        <v>0.6285714285714286</v>
+        <v>0.625</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1815,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1823,13 +1829,13 @@
         <v>56</v>
       </c>
       <c r="K27">
-        <v>0.62</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1841,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1849,13 +1855,13 @@
         <v>57</v>
       </c>
       <c r="K28">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="M28">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1867,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1875,13 +1881,13 @@
         <v>58</v>
       </c>
       <c r="K29">
-        <v>0.602510460251046</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1893,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1901,13 +1907,13 @@
         <v>59</v>
       </c>
       <c r="K30">
-        <v>0.5728813559322034</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L30">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M30">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1919,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1927,13 +1933,13 @@
         <v>60</v>
       </c>
       <c r="K31">
-        <v>0.5638297872340425</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L31">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M31">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1945,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1953,13 +1959,13 @@
         <v>61</v>
       </c>
       <c r="K32">
-        <v>0.4857142857142857</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1971,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1979,13 +1985,13 @@
         <v>62</v>
       </c>
       <c r="K33">
-        <v>0.449438202247191</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1997,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2005,25 +2011,25 @@
         <v>63</v>
       </c>
       <c r="K34">
-        <v>0.4313725490196079</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L34">
+        <v>20</v>
+      </c>
+      <c r="M34">
+        <v>20</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>22</v>
-      </c>
-      <c r="M34">
-        <v>22</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>29</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2031,13 +2037,13 @@
         <v>64</v>
       </c>
       <c r="K35">
-        <v>0.4222222222222222</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2049,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2057,13 +2063,13 @@
         <v>65</v>
       </c>
       <c r="K36">
-        <v>0.3220338983050847</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2075,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2083,13 +2089,13 @@
         <v>66</v>
       </c>
       <c r="K37">
-        <v>0.3013698630136986</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2101,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2109,13 +2115,13 @@
         <v>67</v>
       </c>
       <c r="K38">
-        <v>0.282051282051282</v>
+        <v>0.375</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2127,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2135,24 +2141,76 @@
         <v>68</v>
       </c>
       <c r="K39">
-        <v>0.006581009088060169</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M39">
+        <v>22</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40">
+        <v>0.2948717948717949</v>
+      </c>
+      <c r="L40">
+        <v>23</v>
+      </c>
+      <c r="M40">
+        <v>23</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41">
+        <v>0.005957980558168705</v>
+      </c>
+      <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41">
         <v>31</v>
       </c>
-      <c r="N39">
-        <v>0.68</v>
-      </c>
-      <c r="O39">
-        <v>0.32</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
+      <c r="N41">
+        <v>0.61</v>
+      </c>
+      <c r="O41">
+        <v>0.39</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
         <v>3170</v>
       </c>
     </row>
